--- a/migrAItion_database_cities.xlsx
+++ b/migrAItion_database_cities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paude\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paude\Documents\00. Backup 2023\EXTERIOR\MASTER\MA IAAC\03. Cursada\01. Modulo 03\S01 DE\Class Project\DE_Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB49A3A-0C62-4926-8B58-43F21F478E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ACC5B4-F099-452F-8B16-4C20678DE979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -695,30 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,6 +718,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1104,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7EE9AD-65D9-4DB5-9CCE-E44D6BCEE6E5}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,7 +1121,7 @@
     <col min="6" max="6" width="21.7265625" customWidth="1"/>
     <col min="7" max="7" width="33.36328125" customWidth="1"/>
     <col min="8" max="8" width="28.81640625" customWidth="1"/>
-    <col min="9" max="9" width="26.6328125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" style="8" customWidth="1"/>
     <col min="10" max="10" width="31.90625" customWidth="1"/>
     <col min="11" max="11" width="21.7265625" customWidth="1"/>
   </cols>
@@ -1129,26 +1130,26 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1158,80 +1159,80 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:19" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1257,14 +1258,20 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
